--- a/BAYSM_2025_schedule_20250331.xlsx
+++ b/BAYSM_2025_schedule_20250331.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franzolini\Desktop\j-ISBA\BAYSM2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D07295-7489-4AD3-AC17-37524A24C6F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F359092-8EC9-441A-8A65-A66B651DE7CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31119,7 +31119,9 @@
   </sheetPr>
   <dimension ref="A1:R999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -31155,16 +31157,16 @@
     </row>
     <row r="2" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E2" s="111"/>
       <c r="F2" s="113"/>
@@ -31183,16 +31185,16 @@
     </row>
     <row r="3" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="112" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D3" s="112" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E3" s="111"/>
       <c r="F3" s="113"/>
@@ -31211,16 +31213,16 @@
     </row>
     <row r="4" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="112" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="D4" s="112" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E4" s="111"/>
       <c r="F4" s="113"/>
@@ -31238,17 +31240,17 @@
       <c r="R4" s="113"/>
     </row>
     <row r="5" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>312</v>
+      <c r="A5" s="115" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>315</v>
       </c>
       <c r="E5" s="111"/>
       <c r="F5" s="113"/>
@@ -31266,17 +31268,17 @@
       <c r="R5" s="113"/>
     </row>
     <row r="6" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="115" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>314</v>
-      </c>
-      <c r="C6" s="115" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="115" t="s">
-        <v>315</v>
+      <c r="A6" s="112" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>318</v>
       </c>
       <c r="E6" s="111"/>
       <c r="F6" s="113"/>
@@ -31294,17 +31296,17 @@
       <c r="R6" s="113"/>
     </row>
     <row r="7" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="112" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>317</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="112" t="s">
-        <v>318</v>
+      <c r="A7" s="115" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>321</v>
       </c>
       <c r="E7" s="111"/>
       <c r="F7" s="113"/>
@@ -31322,19 +31324,11 @@
       <c r="R7" s="113"/>
     </row>
     <row r="8" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
-        <v>319</v>
-      </c>
-      <c r="B8" s="115" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="115" t="s">
-        <v>321</v>
-      </c>
-      <c r="E8" s="111"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="113"/>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
@@ -31350,11 +31344,13 @@
       <c r="R8" s="113"/>
     </row>
     <row r="9" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
+      <c r="A9" s="108" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="113"/>
       <c r="G9" s="113"/>
       <c r="H9" s="113"/>
@@ -31370,13 +31366,19 @@
       <c r="R9" s="113"/>
     </row>
     <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
-        <v>412</v>
-      </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="115" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="115" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="116"/>
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
@@ -31393,16 +31395,16 @@
     </row>
     <row r="11" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="115" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B11" s="115" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E11" s="116"/>
       <c r="F11" s="113"/>
@@ -31420,17 +31422,17 @@
       <c r="R11" s="113"/>
     </row>
     <row r="12" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115" t="s">
-        <v>326</v>
-      </c>
-      <c r="B12" s="115" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="115" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>329</v>
+      <c r="A12" s="112" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="112" t="s">
+        <v>333</v>
       </c>
       <c r="E12" s="116"/>
       <c r="F12" s="113"/>
@@ -31448,17 +31450,17 @@
       <c r="R12" s="113"/>
     </row>
     <row r="13" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
-        <v>330</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="112" t="s">
-        <v>333</v>
+      <c r="A13" s="117" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>337</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="113"/>
@@ -31476,17 +31478,17 @@
       <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>336</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>337</v>
+      <c r="A14" s="115" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>341</v>
       </c>
       <c r="E14" s="116"/>
       <c r="F14" s="113"/>
@@ -31504,17 +31506,17 @@
       <c r="R14" s="113"/>
     </row>
     <row r="15" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="115" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" s="115" t="s">
-        <v>341</v>
+      <c r="A15" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>345</v>
       </c>
       <c r="E15" s="116"/>
       <c r="F15" s="113"/>
@@ -31532,17 +31534,17 @@
       <c r="R15" s="113"/>
     </row>
     <row r="16" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="112" t="s">
-        <v>342</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="C16" s="112" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>345</v>
+      <c r="A16" s="119" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="115" t="s">
+        <v>347</v>
       </c>
       <c r="E16" s="116"/>
       <c r="F16" s="113"/>
@@ -31560,19 +31562,19 @@
       <c r="R16" s="113"/>
     </row>
     <row r="17" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="119" t="s">
-        <v>416</v>
-      </c>
-      <c r="B17" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="115" t="s">
-        <v>346</v>
-      </c>
-      <c r="D17" s="115" t="s">
-        <v>347</v>
-      </c>
-      <c r="E17" s="116"/>
+      <c r="A17" s="112" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="112" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="112" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" s="111"/>
       <c r="F17" s="113"/>
       <c r="G17" s="113"/>
       <c r="H17" s="113"/>

--- a/BAYSM_2025_schedule_20250331.xlsx
+++ b/BAYSM_2025_schedule_20250331.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franzolini\Desktop\j-ISBA\BAYSM2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F359092-8EC9-441A-8A65-A66B651DE7CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFA18A-A215-4175-B411-EC96BBE5BF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2282,7 +2282,9 @@
   </sheetPr>
   <dimension ref="A1:X989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2682,7 +2684,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="72" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="4"/>
